--- a/data/nl/outcome_table.xlsx
+++ b/data/nl/outcome_table.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenlam20/GitHub/kenniscentrumongelijkheid/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeur-my.sharepoint.com/personal/83581mhe_eur_nl/Documents/Documents/C4PO/kansenkloof/231018_Output8151mhks_202310_KCO_gradients/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1C84D6-7D4C-0948-9734-B22B0EE1FAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DA83B7D-720E-4EF0-B770-568966630826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33300" yWindow="-280" windowWidth="28800" windowHeight="17500" xr2:uid="{F41B97FE-F77A-4840-B0FB-A5C2C3F09623}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F41B97FE-F77A-4840-B0FB-A5C2C3F09623}"/>
   </bookViews>
   <sheets>
     <sheet name="outcome" sheetId="6" r:id="rId1"/>
     <sheet name="area" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="229">
   <si>
     <t>analyse_outcome</t>
   </si>
@@ -1669,15 +1669,79 @@
       </rPr>
       <t xml:space="preserve"> het gemiddelde woonoppervlak per lid van het huishouden van leerlingen in groep 8.</t>
     </r>
+  </si>
+  <si>
+    <t>c30_hourly_wage_max_11</t>
+  </si>
+  <si>
+    <t>Hourly Wage (Wage Earners)</t>
+  </si>
+  <si>
+    <t>Work and Income</t>
+  </si>
+  <si>
+    <t>refers to the percentage of people in their thirties with an average hourly wage of 11 euro's or higher (2018 price level).</t>
+  </si>
+  <si>
+    <t>c30_hourly_wage_max_14</t>
+  </si>
+  <si>
+    <t>refers to the percentage of people in their thirties with an average hourly wage of 14 euro's or higher (2018 price level).</t>
+  </si>
+  <si>
+    <t>c30_wealth_no_home</t>
+  </si>
+  <si>
+    <t>Household Wealth</t>
+  </si>
+  <si>
+    <t>refers to the average household wealth excluding the value of their home of people in their thirties in 2018.</t>
+  </si>
+  <si>
+    <t>c30_home_wealth</t>
+  </si>
+  <si>
+    <t>refers to the average value of their home of people in their thirties in 2018.</t>
+  </si>
+  <si>
+    <t>c30_sum_gifts</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>c30_gifts_received</t>
+  </si>
+  <si>
+    <t>c30_young_mothers</t>
+  </si>
+  <si>
+    <t>c30_household_income</t>
+  </si>
+  <si>
+    <t>c30_living_space_pp</t>
+  </si>
+  <si>
+    <t>c30_income_perc</t>
+  </si>
+  <si>
+    <t>c30_household_income_perc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1731,8 +1795,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1743,6 +1820,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1758,24 +1841,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2090,23 +2177,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F4A81B-7759-BE45-BE6A-975E9F190FD6}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="128.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="128.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="127.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="127.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
@@ -2127,7 +2214,7 @@
       </c>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>145</v>
       </c>
@@ -2148,7 +2235,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>145</v>
       </c>
@@ -2169,7 +2256,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>145</v>
       </c>
@@ -2189,7 +2276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>144</v>
       </c>
@@ -2209,7 +2296,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>145</v>
       </c>
@@ -2230,7 +2317,7 @@
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>144</v>
       </c>
@@ -2250,7 +2337,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>145</v>
       </c>
@@ -2271,7 +2358,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>145</v>
       </c>
@@ -2291,7 +2378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>145</v>
       </c>
@@ -2311,7 +2398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>145</v>
       </c>
@@ -2331,7 +2418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>145</v>
       </c>
@@ -2351,7 +2438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>144</v>
       </c>
@@ -2372,7 +2459,7 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>145</v>
       </c>
@@ -2393,7 +2480,7 @@
       </c>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>145</v>
       </c>
@@ -2414,7 +2501,7 @@
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>145</v>
       </c>
@@ -2435,7 +2522,7 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>145</v>
       </c>
@@ -2456,7 +2543,7 @@
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>145</v>
       </c>
@@ -2477,7 +2564,7 @@
       </c>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>145</v>
       </c>
@@ -2498,7 +2585,7 @@
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>145</v>
       </c>
@@ -2518,7 +2605,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>145</v>
       </c>
@@ -2539,7 +2626,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>145</v>
       </c>
@@ -2559,7 +2646,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>145</v>
       </c>
@@ -2580,7 +2667,7 @@
       </c>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>145</v>
       </c>
@@ -2600,7 +2687,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>145</v>
       </c>
@@ -2620,7 +2707,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>145</v>
       </c>
@@ -2640,7 +2727,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>145</v>
       </c>
@@ -2660,7 +2747,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>145</v>
       </c>
@@ -2680,7 +2767,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>145</v>
       </c>
@@ -2700,7 +2787,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>145</v>
       </c>
@@ -2720,7 +2807,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>145</v>
       </c>
@@ -2741,7 +2828,7 @@
       </c>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>145</v>
       </c>
@@ -2762,7 +2849,7 @@
       </c>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>146</v>
       </c>
@@ -2782,7 +2869,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>146</v>
       </c>
@@ -2802,7 +2889,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>145</v>
       </c>
@@ -2822,7 +2909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>144</v>
       </c>
@@ -2842,7 +2929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>145</v>
       </c>
@@ -2862,7 +2949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>146</v>
       </c>
@@ -2882,7 +2969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>145</v>
       </c>
@@ -2902,7 +2989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>144</v>
       </c>
@@ -2922,7 +3009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>145</v>
       </c>
@@ -2942,7 +3029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>145</v>
       </c>
@@ -2962,7 +3049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>144</v>
       </c>
@@ -2982,7 +3069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>144</v>
       </c>
@@ -2999,6 +3086,226 @@
         <v>204</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3015,13 +3322,13 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
@@ -3029,7 +3336,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
@@ -3037,7 +3344,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -3045,7 +3352,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -3053,7 +3360,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
@@ -3061,7 +3368,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>72</v>
       </c>
@@ -3069,7 +3376,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
@@ -3077,7 +3384,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>74</v>
       </c>
@@ -3085,7 +3392,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
@@ -3093,7 +3400,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
@@ -3101,7 +3408,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -3109,7 +3416,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
@@ -3117,7 +3424,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
@@ -3125,7 +3432,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>80</v>
       </c>
@@ -3133,7 +3440,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
@@ -3141,7 +3448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>82</v>
       </c>
@@ -3149,7 +3456,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>83</v>
       </c>
@@ -3157,7 +3464,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -3165,7 +3472,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>85</v>
       </c>
@@ -3173,7 +3480,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>86</v>
       </c>
@@ -3181,7 +3488,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>87</v>
       </c>
@@ -3189,7 +3496,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>88</v>
       </c>
@@ -3197,7 +3504,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>89</v>
       </c>
@@ -3205,7 +3512,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
@@ -3213,7 +3520,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>91</v>
       </c>
@@ -3221,7 +3528,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -3229,7 +3536,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>93</v>
       </c>
@@ -3237,7 +3544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>94</v>
       </c>
@@ -3245,7 +3552,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
@@ -3253,7 +3560,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>97</v>
       </c>
@@ -3261,7 +3568,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>98</v>
       </c>
@@ -3269,7 +3576,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>99</v>
       </c>
@@ -3277,7 +3584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -3285,7 +3592,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>101</v>
       </c>
@@ -3293,7 +3600,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>102</v>
       </c>
@@ -3301,7 +3608,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>104</v>
       </c>
@@ -3309,7 +3616,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
@@ -3317,7 +3624,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>106</v>
       </c>
@@ -3325,7 +3632,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>107</v>
       </c>
@@ -3333,7 +3640,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>108</v>
       </c>
@@ -3341,7 +3648,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>109</v>
       </c>
@@ -3349,7 +3656,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>110</v>
       </c>
@@ -3357,7 +3664,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>111</v>
       </c>
@@ -3365,7 +3672,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>112</v>
       </c>
@@ -3373,7 +3680,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>113</v>
       </c>
@@ -3381,7 +3688,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>114</v>
       </c>
@@ -3389,7 +3696,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>115</v>
       </c>
@@ -3397,7 +3704,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>116</v>
       </c>
@@ -3405,7 +3712,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>117</v>
       </c>
@@ -3413,7 +3720,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>118</v>
       </c>
@@ -3421,7 +3728,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>119</v>
       </c>
@@ -3429,7 +3736,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>120</v>
       </c>
@@ -3437,7 +3744,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -3445,7 +3752,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>122</v>
       </c>
@@ -3453,7 +3760,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>123</v>
       </c>
@@ -3461,7 +3768,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>124</v>
       </c>
@@ -3469,7 +3776,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>125</v>
       </c>
@@ -3477,7 +3784,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>126</v>
       </c>
@@ -3485,7 +3792,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>127</v>
       </c>
@@ -3493,7 +3800,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>128</v>
       </c>
@@ -3501,7 +3808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>129</v>
       </c>
@@ -3509,7 +3816,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>130</v>
       </c>
@@ -3517,7 +3824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>131</v>
       </c>
@@ -3525,7 +3832,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>132</v>
       </c>

--- a/data/nl/outcome_table.xlsx
+++ b/data/nl/outcome_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeur-my.sharepoint.com/personal/557513dp_eur_nl/Documents/Kansenlab/kenniscentrumongelijkheid-main/data/nl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidpietersz/Documents/GitHub/kenniscentrumongelijkheid/data/nl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{ECE2F296-FD9F-4090-85D3-4D2D191914E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B30E09-CDA8-8D4D-95BE-11B40440D7C5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F9AFF0-C167-D64A-A5D6-CC66067B61AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{F41B97FE-F77A-4840-B0FB-A5C2C3F09623}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{F41B97FE-F77A-4840-B0FB-A5C2C3F09623}"/>
   </bookViews>
   <sheets>
     <sheet name="outcome" sheetId="6" r:id="rId1"/>
@@ -132,7 +132,7 @@
     <t>zijn de gemiddelde totale zorgkosten, vergoed vanuit de Zorgverzekeringswet, van 16-jarigen in het jaar dat zij 16 werden.</t>
   </si>
   <si>
-    <t>c21_young_parent</t>
+    <t>c21_young_parents</t>
   </si>
   <si>
     <t>Jong ouderschap</t>
@@ -141,15 +141,18 @@
     <t>is het percentage 21-jarigen dat een kind kreeg voor de 20e verjaardag.</t>
   </si>
   <si>
+    <t>21-jarigen</t>
+  </si>
+  <si>
+    <t>c30_total_health_costs</t>
+  </si>
+  <si>
+    <t>zijn de gemiddelde totale zorgkosten van 35-jarigen, vergoed vanuit de Zorgverzekeringswet, in het jaar dat zij 35 werden.</t>
+  </si>
+  <si>
     <t>35-jarigen</t>
   </si>
   <si>
-    <t>c30_total_health_costs</t>
-  </si>
-  <si>
-    <t>zijn de gemiddelde totale zorgkosten van 35-jarigen, vergoed vanuit de Zorgverzekeringswet, in het jaar dat zij 35 werden.</t>
-  </si>
-  <si>
     <t>c30_hospital</t>
   </si>
   <si>
@@ -322,9 +325,6 @@
   </si>
   <si>
     <t>is het percentage 21-jarigen dat een startkwalificatie heeft behaald (havo, vwo, of mbo niveau 2 of hoger).</t>
-  </si>
-  <si>
-    <t>21-jarigen</t>
   </si>
   <si>
     <t>c21_hbo_followed</t>
@@ -564,15 +564,12 @@
     <t>years</t>
   </si>
   <si>
-    <t>c35_age_left_parents</t>
+    <t>c30_age_left_parents</t>
   </si>
   <si>
     <t>Leeftijd waarop ouderlijk huis is verlaten</t>
   </si>
   <si>
-    <t>is de gemiddelde leeftjid waarip 35-jarigen het ouderlijk huis hebben verlaten.</t>
-  </si>
-  <si>
     <t>c30_living_space_pp</t>
   </si>
   <si>
@@ -787,6 +784,9 @@
   </si>
   <si>
     <t>Buitenveldert, Zuidas</t>
+  </si>
+  <si>
+    <t>is de gemiddelde leeftjid waarop 35-jarigen het ouderlijk huis hebben verlaten.</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,6 +872,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -885,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -909,7 +921,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1226,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F4A81B-7759-BE45-BE6A-975E9F190FD6}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="128.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1330,7 +1345,7 @@
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1351,7 +1366,7 @@
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1371,7 +1386,7 @@
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1392,7 +1407,7 @@
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1421,8 +1436,8 @@
       <c r="E9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>95</v>
+      <c r="F9" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1442,7 +1457,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10"/>
     </row>
@@ -1451,19 +1466,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1471,19 +1486,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1491,19 +1506,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1511,19 +1526,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1531,16 +1546,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>21</v>
@@ -1552,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>21</v>
@@ -1573,16 +1588,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>21</v>
@@ -1594,16 +1609,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>21</v>
@@ -1615,16 +1630,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>21</v>
@@ -1636,16 +1651,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>21</v>
@@ -1657,16 +1672,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>21</v>
@@ -1677,16 +1692,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>21</v>
@@ -1698,16 +1713,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>21</v>
@@ -1718,16 +1733,16 @@
         <v>6</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>21</v>
@@ -1739,16 +1754,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>21</v>
@@ -1759,16 +1774,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>28</v>
@@ -1779,16 +1794,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>28</v>
@@ -1799,16 +1814,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>28</v>
@@ -1819,19 +1834,19 @@
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1845,13 +1860,13 @@
         <v>97</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1865,13 +1880,13 @@
         <v>100</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>101</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1885,13 +1900,13 @@
         <v>103</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>104</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G32"/>
     </row>
@@ -1906,174 +1921,174 @@
         <v>106</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>107</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>169</v>
+      <c r="B37" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>170</v>
+        <v>110</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>171</v>
+      <c r="A38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>172</v>
+        <v>110</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>173</v>
+        <v>22</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>175</v>
+        <v>110</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>22</v>
+      <c r="A40" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>109</v>
+        <v>128</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>111</v>
+      <c r="E40" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>113</v>
+        <v>6</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>114</v>
+      <c r="E41" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2081,279 +2096,279 @@
         <v>6</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>124</v>
+      <c r="E44" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>126</v>
+      <c r="B45" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>127</v>
+      <c r="E45" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>129</v>
+        <v>22</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>130</v>
+      <c r="E46" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>6</v>
+      <c r="A47" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>132</v>
+        <v>149</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>133</v>
+      <c r="E47" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>135</v>
+      <c r="A48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>136</v>
+      <c r="E48" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>138</v>
+      <c r="A49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>139</v>
+      <c r="E49" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>110</v>
+        <v>159</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>110</v>
+      <c r="A51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>34</v>
+        <v>163</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>146</v>
+        <v>6</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>148</v>
+        <v>165</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>151</v>
+      <c r="A53" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>154</v>
+        <v>170</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>157</v>
+      <c r="A55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2377,7 +2392,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -2385,506 +2400,506 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/data/nl/outcome_table.xlsx
+++ b/data/nl/outcome_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidpietersz/Documents/GitHub/kenniscentrumongelijkheid/data/nl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilsonea/Documents/GitHub/kenniscentrumongelijkheid/data/nl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F9AFF0-C167-D64A-A5D6-CC66067B61AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483055AC-68CF-D14B-AF65-87DBB7506013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{F41B97FE-F77A-4840-B0FB-A5C2C3F09623}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="28800" windowHeight="15720" xr2:uid="{F41B97FE-F77A-4840-B0FB-A5C2C3F09623}"/>
   </bookViews>
   <sheets>
     <sheet name="outcome" sheetId="6" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="264">
   <si>
     <t>prefix_postfix</t>
   </si>
@@ -69,9 +67,6 @@
     <t>Gezondheid en welzijn</t>
   </si>
   <si>
-    <t xml:space="preserve">is het percentage pasgeborenen met een geboortegewicht in de lichtste tien procent van de kinderen met hetzelfde geslacht en dezelfde zwangerschapsduur volgens de Perined geboortegewichtcurven. </t>
-  </si>
-  <si>
     <t>pasgeborenen</t>
   </si>
   <si>
@@ -90,15 +85,9 @@
     <t>Zuigelingensterfte</t>
   </si>
   <si>
-    <t xml:space="preserve">is het percentage pasgeborenen dat overlijdt tijdens de zwangerschap of binnen een jaar na de geboorte. </t>
-  </si>
-  <si>
     <t>c11_youth_protection</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeugdbescherming </t>
-  </si>
-  <si>
     <t>is het percentage leerlingen in groep 8 met een jeugdbeschermingsmaatregel in het jaar het jaar voordat zij de eindtoets deden.</t>
   </si>
   <si>
@@ -177,9 +166,6 @@
     <t>Gebruikt geestelijke gezondheidszorg (basis)</t>
   </si>
   <si>
-    <t>is het percentage 35-jarigen dat  gebruikmaakte van geestelijke gezondheidszorg (basis), vergoed vanuit de Zorgverzekeringswet, in het jaar dat zij 35 werden.</t>
-  </si>
-  <si>
     <t>c30_pharma</t>
   </si>
   <si>
@@ -198,27 +184,18 @@
     <t>Onderwijs</t>
   </si>
   <si>
-    <t xml:space="preserve">is het percentage leerlingen in groep 8 met een eindtoetsadvies van tenminste vmbo gemengde leerweg. </t>
-  </si>
-  <si>
     <t>c11_havo_test</t>
   </si>
   <si>
     <t>Eindtoetsadvies havo of hoger</t>
   </si>
   <si>
-    <t xml:space="preserve">is het percentage leerlingen in groep 8 met een eindtoetsadvies van tenminste havo. </t>
-  </si>
-  <si>
     <t>c11_vwo_test</t>
   </si>
   <si>
     <t>Eindtoetsadvies vwo</t>
   </si>
   <si>
-    <t xml:space="preserve">is het percentage leerlingen in groep 8 met een eindtoetsadvies van vwo. </t>
-  </si>
-  <si>
     <t>c11_math</t>
   </si>
   <si>
@@ -261,36 +238,24 @@
     <t>Schooladvies havo of hoger</t>
   </si>
   <si>
-    <t xml:space="preserve">is het percentage leerlingen in groep 8 met een schooladvies van tenminste havo. </t>
-  </si>
-  <si>
     <t>c11_vwo_final</t>
   </si>
   <si>
     <t>Schooladvies vwo</t>
   </si>
   <si>
-    <t xml:space="preserve">is het percentage leerlingen in groep 8 met een schooladvies van vwo. </t>
-  </si>
-  <si>
     <t>c11_over_advice</t>
   </si>
   <si>
     <t>Schooladvies hoger dan eindtoetsadvies</t>
   </si>
   <si>
-    <t xml:space="preserve">is het percentage leerlingen in groep 8 met een schooladvies dat tenminste één niveau hoger is dan het eindtoetsadvies. </t>
-  </si>
-  <si>
     <t>c11_under_advice</t>
   </si>
   <si>
     <t>Schooladvies lager dan eindtoetsadvies</t>
   </si>
   <si>
-    <t xml:space="preserve">is het percentage leerlingen in groep 8 met een schooladvies dat tenminste één niveau lager is dan het eindtoetsadvies. </t>
-  </si>
-  <si>
     <t>c16_vmbo_gl</t>
   </si>
   <si>
@@ -303,63 +268,39 @@
     <t>c16_havo</t>
   </si>
   <si>
-    <t xml:space="preserve">Havo of hoger </t>
-  </si>
-  <si>
     <t>is het percentage 16-jarigen dat tenminste havo heeft gevolgd.</t>
   </si>
   <si>
     <t>c16_vwo</t>
   </si>
   <si>
-    <t xml:space="preserve">Vwo </t>
-  </si>
-  <si>
     <t>is het percentage 16-jarigen dat vwo heeft gevolgd.</t>
   </si>
   <si>
     <t>c21_high_school_attained</t>
   </si>
   <si>
-    <t xml:space="preserve">Startkwalificatie </t>
-  </si>
-  <si>
     <t>is het percentage 21-jarigen dat een startkwalificatie heeft behaald (havo, vwo, of mbo niveau 2 of hoger).</t>
   </si>
   <si>
     <t>c21_hbo_followed</t>
   </si>
   <si>
-    <t xml:space="preserve">Hbo of hoger </t>
-  </si>
-  <si>
     <t>is het percentage 21-jarigen dat een hbo- of universitaire opleiding heeft gevolgd.</t>
   </si>
   <si>
     <t>c21_uni_followed</t>
   </si>
   <si>
-    <t xml:space="preserve">Universiteit </t>
-  </si>
-  <si>
     <t>is het percentage 21-jarigen dat een universitaire opleiding heeft gevolgd.</t>
   </si>
   <si>
     <t>c30_hbo_attained</t>
   </si>
   <si>
-    <t xml:space="preserve">Diploma hbo of hoger </t>
-  </si>
-  <si>
-    <t>is het percentage 35-jarigen dat  een hbo- of universitair diploma heeft behaald.</t>
-  </si>
-  <si>
     <t>c30_wo_attained</t>
   </si>
   <si>
-    <t xml:space="preserve">Diploma universiteit </t>
-  </si>
-  <si>
     <t>is het percentage 35-jarigen dat een universitair diploma heeft behaald.</t>
   </si>
   <si>
@@ -388,6 +329,486 @@
   </si>
   <si>
     <t>Werkt</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>c30_hrs_work_pw</t>
+  </si>
+  <si>
+    <t>Gewerkte uren per week</t>
+  </si>
+  <si>
+    <t>is het gemiddelde aantal gewerkte uren per week van 35-jarigen in loondienst in het jaar dat ze 35 werden.</t>
+  </si>
+  <si>
+    <t>c30_permanent_contract</t>
+  </si>
+  <si>
+    <t>Vast arbeidscontract</t>
+  </si>
+  <si>
+    <t>is het percentage 35-jarigen in loondienst dat een contract voor onbepaalde tijd had in de langstlopende baan in het jaar dat ze 35 werden.</t>
+  </si>
+  <si>
+    <t>c30_hourly_wage</t>
+  </si>
+  <si>
+    <t>Uurloon</t>
+  </si>
+  <si>
+    <t>is het gemiddelde uurloon (prijspeil van 2020) van 35-jarigen in loondienst, berekend door het basisloon in het jaar dat zij 35 werden te delen door het aantal gewerkte basisuren.</t>
+  </si>
+  <si>
+    <t>c30_hourly_wage_max_11</t>
+  </si>
+  <si>
+    <t>Uurloon minder dan 11</t>
+  </si>
+  <si>
+    <t>verwijst naar het percentage 35-jarigen in loondienst met een gemiddeld uurloon van 11 euro of hoger (prijspeil 2020) in het jaar dat zij 35 werden.</t>
+  </si>
+  <si>
+    <t>c30_hourly_wage_max_14</t>
+  </si>
+  <si>
+    <t>verwijst naar het percentage 35-jarigen in loondienst met een gemiddeld uurloon van 14 euro of hoger (prijspeil 2020) in het jaar dat zij 35 werden.</t>
+  </si>
+  <si>
+    <t>c30_disability</t>
+  </si>
+  <si>
+    <t>Ziekte- of arbeidsongeschiktheidsuitkering</t>
+  </si>
+  <si>
+    <t>is het percentage 35-jarigen dat het meeste inkomen uit een ziekte- of arbeidsongeschiktheidsuitkering ontving in december van het jaar dat zij 35 werden.</t>
+  </si>
+  <si>
+    <t>c30_social_assistance</t>
+  </si>
+  <si>
+    <t>Bijstand</t>
+  </si>
+  <si>
+    <t>is het percentage 35-jarigen dat het meeste inkomen uit een bijstandsuitkering ontving in december van het jaar dat zij 35 werden.</t>
+  </si>
+  <si>
+    <t>c30_wealth</t>
+  </si>
+  <si>
+    <t>Vermogen</t>
+  </si>
+  <si>
+    <t>c30_wealth_no_home</t>
+  </si>
+  <si>
+    <t>Vermogen zonder woning en hypotheekschuld</t>
+  </si>
+  <si>
+    <t>c30_home_wealth</t>
+  </si>
+  <si>
+    <t>Eigenwoningwaarde</t>
+  </si>
+  <si>
+    <t>c30_debt</t>
+  </si>
+  <si>
+    <t>Schulden</t>
+  </si>
+  <si>
+    <t>is het gemiddelde van de totale schulden van de huishoudens waartoe 35-jarigen behoren in het jaar dat zij 35 werden.</t>
+  </si>
+  <si>
+    <t>c30_gifts_received</t>
+  </si>
+  <si>
+    <t>Schenking door ouders</t>
+  </si>
+  <si>
+    <t>is het percentage 35-jarigen dat een schenking ontving van ouders tussen leeftijd 26 en 35.</t>
+  </si>
+  <si>
+    <t>c30_sum_gifts</t>
+  </si>
+  <si>
+    <t>Waarde schenking door ouders</t>
+  </si>
+  <si>
+    <t>zijn de gemiddelde totale schenkingen ontvangen van ouders tussen leeftijd 26 en 35 van 35-jarigen.</t>
+  </si>
+  <si>
+    <t>c11_living_space_pp</t>
+  </si>
+  <si>
+    <t>Woonoppervlak per lid huishouden</t>
+  </si>
+  <si>
+    <t>Wonen</t>
+  </si>
+  <si>
+    <t>is het gemiddelde woonoppervlak per lid van het huishouden van leerlingen in groep 8.</t>
+  </si>
+  <si>
+    <t>c16_living_space_pp</t>
+  </si>
+  <si>
+    <t>is het gemiddelde woonoppervlak per lid van het huishouden van 16-jarigen.</t>
+  </si>
+  <si>
+    <t>c21_living_with_parents</t>
+  </si>
+  <si>
+    <t>Thuiswonend</t>
+  </si>
+  <si>
+    <t>is het percentage 21-jarigen dat bij tenminste één ouder woont.</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>c30_age_left_parents</t>
+  </si>
+  <si>
+    <t>Leeftijd waarop ouderlijk huis is verlaten</t>
+  </si>
+  <si>
+    <t>c30_living_space_pp</t>
+  </si>
+  <si>
+    <t>is het gemiddelde woonoppervlak per lid van het huishouden van 35-jarigen.</t>
+  </si>
+  <si>
+    <t>c30_homeowner</t>
+  </si>
+  <si>
+    <t>Koopwoning</t>
+  </si>
+  <si>
+    <t>geografie</t>
+  </si>
+  <si>
+    <t>Nederland</t>
+  </si>
+  <si>
+    <t>Metropool Amsterdam</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Gemeente</t>
+  </si>
+  <si>
+    <t>Almere</t>
+  </si>
+  <si>
+    <t>Amstelveen</t>
+  </si>
+  <si>
+    <t>Beverwijk</t>
+  </si>
+  <si>
+    <t>Gooise Meren</t>
+  </si>
+  <si>
+    <t>Haarlem</t>
+  </si>
+  <si>
+    <t>Haarlemmermeer</t>
+  </si>
+  <si>
+    <t>Lelystad</t>
+  </si>
+  <si>
+    <t>Purmerend</t>
+  </si>
+  <si>
+    <t>Velsen</t>
+  </si>
+  <si>
+    <t>Zaanstad</t>
+  </si>
+  <si>
+    <t>Edam-Volendam</t>
+  </si>
+  <si>
+    <t>Aalsmeer</t>
+  </si>
+  <si>
+    <t>Heemskerk</t>
+  </si>
+  <si>
+    <t>Hilversum</t>
+  </si>
+  <si>
+    <t>Huizen</t>
+  </si>
+  <si>
+    <t>Uithoorn</t>
+  </si>
+  <si>
+    <t>Bloemendaal</t>
+  </si>
+  <si>
+    <t>Heemstede</t>
+  </si>
+  <si>
+    <t>Wijdemeren</t>
+  </si>
+  <si>
+    <t>Wormerland</t>
+  </si>
+  <si>
+    <t>Diemen</t>
+  </si>
+  <si>
+    <t>Waterland</t>
+  </si>
+  <si>
+    <t>Weesp</t>
+  </si>
+  <si>
+    <t>Zuidoost</t>
+  </si>
+  <si>
+    <t>Stadsdeel</t>
+  </si>
+  <si>
+    <t>Noord</t>
+  </si>
+  <si>
+    <t>Oost</t>
+  </si>
+  <si>
+    <t>Nieuw-West</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Centrum</t>
+  </si>
+  <si>
+    <t>Zuid</t>
+  </si>
+  <si>
+    <t>Gaasperdam, Driemond</t>
+  </si>
+  <si>
+    <t>Wijk</t>
+  </si>
+  <si>
+    <t>Noord-Oost</t>
+  </si>
+  <si>
+    <t>Bijlmer-Centrum, Amstel III</t>
+  </si>
+  <si>
+    <t>Indische Buurt, Oostelijk Havengebied</t>
+  </si>
+  <si>
+    <t>De Pijp, Rivierenbuurt</t>
+  </si>
+  <si>
+    <t>De Aker, Sloten, Nieuw-Sloten</t>
+  </si>
+  <si>
+    <t>Geuzenveld, Slotermeer, Sloterdijken</t>
+  </si>
+  <si>
+    <t>Osdorp</t>
+  </si>
+  <si>
+    <t>Bijlmer-Oost</t>
+  </si>
+  <si>
+    <t>Oud-Oost</t>
+  </si>
+  <si>
+    <t>Slotervaart</t>
+  </si>
+  <si>
+    <t>Noord-West</t>
+  </si>
+  <si>
+    <t>Bos en Lommer</t>
+  </si>
+  <si>
+    <t>IJburg, Zeeburgereiland</t>
+  </si>
+  <si>
+    <t>Oud West, De Baarsjes</t>
+  </si>
+  <si>
+    <t>Oud-Zuid</t>
+  </si>
+  <si>
+    <t>Oud-Noord</t>
+  </si>
+  <si>
+    <t>Westerpark</t>
+  </si>
+  <si>
+    <t>Centrum-Oost</t>
+  </si>
+  <si>
+    <t>Watergraafsmeer</t>
+  </si>
+  <si>
+    <t>Uitgeest</t>
+  </si>
+  <si>
+    <t>Zandvoort</t>
+  </si>
+  <si>
+    <t>Ouder-Amstel</t>
+  </si>
+  <si>
+    <t>Beemster</t>
+  </si>
+  <si>
+    <t>Landsmeer</t>
+  </si>
+  <si>
+    <t>Oostzaan</t>
+  </si>
+  <si>
+    <t>Blaricum</t>
+  </si>
+  <si>
+    <t>Laren</t>
+  </si>
+  <si>
+    <t>Centrum-West</t>
+  </si>
+  <si>
+    <t>Buitenveldert, Zuidas</t>
+  </si>
+  <si>
+    <t>is de gemiddelde leeftjid waarop 35-jarigen het ouderlijk huis hebben verlaten.</t>
+  </si>
+  <si>
+    <t>is het percentage pasgeborenen met een geboortegewicht in de lichtste tien procent van de kinderen met hetzelfde geslacht en dezelfde zwangerschapsduur volgens de Perined geboortegewichtcurven. </t>
+  </si>
+  <si>
+    <t>is het percentage pasgeborenen dat overlijdt tijdens de zwangerschap of binnen een jaar na de geboorte. </t>
+  </si>
+  <si>
+    <t>Jeugdbescherming </t>
+  </si>
+  <si>
+    <t>is het percentage 35-jarigen dat  gebruikmaakte van geestelijke gezondheidszorg (basis), vergoed vanuit de Zorgverzekeringswet, in het jaar dat zij 35 werden.</t>
+  </si>
+  <si>
+    <t>is het percentage leerlingen in groep 8 met een eindtoetsadvies van tenminste vmbo gemengde leerweg. </t>
+  </si>
+  <si>
+    <t>is het percentage leerlingen in groep 8 met een eindtoetsadvies van tenminste havo. </t>
+  </si>
+  <si>
+    <t>is het percentage leerlingen in groep 8 met een eindtoetsadvies van vwo. </t>
+  </si>
+  <si>
+    <t>is het percentage leerlingen in groep 8 met een schooladvies van tenminste havo. </t>
+  </si>
+  <si>
+    <t>is het percentage leerlingen in groep 8 met een schooladvies van vwo. </t>
+  </si>
+  <si>
+    <t>is het percentage leerlingen in groep 8 met een schooladvies dat tenminste één niveau hoger is dan het eindtoetsadvies. </t>
+  </si>
+  <si>
+    <t>is het percentage leerlingen in groep 8 met een schooladvies dat tenminste één niveau lager is dan het eindtoetsadvies. </t>
+  </si>
+  <si>
+    <t>c11_class_income_below_25th</t>
+  </si>
+  <si>
+    <t>Klas ouders laag inkomen</t>
+  </si>
+  <si>
+    <t>Klasgenoten</t>
+  </si>
+  <si>
+    <t>c11_class_income_above_75th</t>
+  </si>
+  <si>
+    <t>Klas ouders hoog inkomen</t>
+  </si>
+  <si>
+    <t>c11_class_foreign_born_parents</t>
+  </si>
+  <si>
+    <t>Klas ouders buitenland geboren</t>
+  </si>
+  <si>
+    <t>c11_class_vmbo_gl_test</t>
+  </si>
+  <si>
+    <t>Klas eindtoetsadvies vmbo-GL en hoger</t>
+  </si>
+  <si>
+    <t>c11_class_havo_test</t>
+  </si>
+  <si>
+    <t>Klas eindtoetsadvies havo en hoger</t>
+  </si>
+  <si>
+    <t>c11_class_vwo_test</t>
+  </si>
+  <si>
+    <t>Klas eindtoetsadvies vwo</t>
+  </si>
+  <si>
+    <t>c11_class_reading</t>
+  </si>
+  <si>
+    <t>Klas eindtoets lezen streefniveau</t>
+  </si>
+  <si>
+    <t>c11_class_math</t>
+  </si>
+  <si>
+    <t>Klas eindteots rekenen streefniveau</t>
+  </si>
+  <si>
+    <t>c11_class_language</t>
+  </si>
+  <si>
+    <t>Klas eindtoets taalverzorging streefniveau</t>
+  </si>
+  <si>
+    <t>c11_class_size</t>
+  </si>
+  <si>
+    <t>Klassengrootte</t>
+  </si>
+  <si>
+    <t>Havo of hoger </t>
+  </si>
+  <si>
+    <t>Vwo </t>
+  </si>
+  <si>
+    <t>Startkwalificatie </t>
+  </si>
+  <si>
+    <t>Hbo of hoger </t>
+  </si>
+  <si>
+    <t>Universiteit </t>
+  </si>
+  <si>
+    <t>Diploma hbo of hoger </t>
+  </si>
+  <si>
+    <t>is het percentage 35-jarigen dat  een hbo- of universitair diploma heeft behaald.</t>
+  </si>
+  <si>
+    <t>Diploma universiteit </t>
   </si>
   <si>
     <r>
@@ -397,6 +818,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -406,6 +828,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -414,379 +837,19 @@
     </r>
   </si>
   <si>
-    <t>continuous</t>
-  </si>
-  <si>
-    <t>c30_hrs_work_pw</t>
-  </si>
-  <si>
-    <t>Gewerkte uren per week</t>
-  </si>
-  <si>
-    <t>is het gemiddelde aantal gewerkte uren per week van 35-jarigen in loondienst in het jaar dat ze 35 werden.</t>
-  </si>
-  <si>
-    <t>c30_permanent_contract</t>
-  </si>
-  <si>
-    <t>Vast arbeidscontract</t>
-  </si>
-  <si>
-    <t>is het percentage 35-jarigen in loondienst dat een contract voor onbepaalde tijd had in de langstlopende baan in het jaar dat ze 35 werden.</t>
-  </si>
-  <si>
-    <t>c30_hourly_wage</t>
-  </si>
-  <si>
-    <t>Uurloon</t>
-  </si>
-  <si>
-    <t>is het gemiddelde uurloon (prijspeil van 2020) van 35-jarigen in loondienst, berekend door het basisloon in het jaar dat zij 35 werden te delen door het aantal gewerkte basisuren.</t>
-  </si>
-  <si>
-    <t>c30_hourly_wage_max_11</t>
-  </si>
-  <si>
-    <t>Uurloon minder dan 11</t>
-  </si>
-  <si>
-    <t>verwijst naar het percentage 35-jarigen in loondienst met een gemiddeld uurloon van 11 euro of hoger (prijspeil 2020) in het jaar dat zij 35 werden.</t>
-  </si>
-  <si>
-    <t>c30_hourly_wage_max_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uurloon minder dan 14 </t>
-  </si>
-  <si>
-    <t>verwijst naar het percentage 35-jarigen in loondienst met een gemiddeld uurloon van 14 euro of hoger (prijspeil 2020) in het jaar dat zij 35 werden.</t>
-  </si>
-  <si>
-    <t>c30_disability</t>
-  </si>
-  <si>
-    <t>Ziekte- of arbeidsongeschiktheidsuitkering</t>
-  </si>
-  <si>
-    <t>is het percentage 35-jarigen dat het meeste inkomen uit een ziekte- of arbeidsongeschiktheidsuitkering ontving in december van het jaar dat zij 35 werden.</t>
-  </si>
-  <si>
-    <t>c30_social_assistance</t>
-  </si>
-  <si>
-    <t>Bijstand</t>
-  </si>
-  <si>
-    <t>is het percentage 35-jarigen dat het meeste inkomen uit een bijstandsuitkering ontving in december van het jaar dat zij 35 werden.</t>
-  </si>
-  <si>
-    <t>c30_wealth</t>
-  </si>
-  <si>
-    <t>Vermogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is het gemiddelde totale vermogen van de huishoudens waartoe 35-jarigen behoorden in het jaar dat zij 35 werden. </t>
-  </si>
-  <si>
-    <t>c30_wealth_no_home</t>
-  </si>
-  <si>
-    <t>Vermogen zonder woning en hypotheekschuld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is het gemiddelde totale vermogen zonder woning en hypotheekschuld van de huishoudens waartoe 35-jarigen behoorden in het jaar dat zij 35 werden. </t>
-  </si>
-  <si>
-    <t>c30_home_wealth</t>
-  </si>
-  <si>
-    <t>Eigenwoningwaarde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is het gemiddelde waarde van de woning minus hypotheekschuld van de huishoudens waartoe 35-jarigen behoorden in het jaar dat zij 35 werden. </t>
-  </si>
-  <si>
-    <t>c30_debt</t>
-  </si>
-  <si>
-    <t>Schulden</t>
-  </si>
-  <si>
-    <t>is het gemiddelde van de totale schulden van de huishoudens waartoe 35-jarigen behoren in het jaar dat zij 35 werden.</t>
-  </si>
-  <si>
-    <t>c30_gifts_received</t>
-  </si>
-  <si>
-    <t>Schenking door ouders</t>
-  </si>
-  <si>
-    <t>is het percentage 35-jarigen dat een schenking ontving van ouders tussen leeftijd 26 en 35.</t>
-  </si>
-  <si>
-    <t>c30_sum_gifts</t>
-  </si>
-  <si>
-    <t>Waarde schenking door ouders</t>
-  </si>
-  <si>
-    <t>zijn de gemiddelde totale schenkingen ontvangen van ouders tussen leeftijd 26 en 35 van 35-jarigen.</t>
-  </si>
-  <si>
-    <t>c11_living_space_pp</t>
-  </si>
-  <si>
-    <t>Woonoppervlak per lid huishouden</t>
-  </si>
-  <si>
-    <t>Wonen</t>
-  </si>
-  <si>
-    <t>is het gemiddelde woonoppervlak per lid van het huishouden van leerlingen in groep 8.</t>
-  </si>
-  <si>
-    <t>c16_living_space_pp</t>
-  </si>
-  <si>
-    <t>is het gemiddelde woonoppervlak per lid van het huishouden van 16-jarigen.</t>
-  </si>
-  <si>
-    <t>c21_living_with_parents</t>
-  </si>
-  <si>
-    <t>Thuiswonend</t>
-  </si>
-  <si>
-    <t>is het percentage 21-jarigen dat bij tenminste één ouder woont.</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>c30_age_left_parents</t>
-  </si>
-  <si>
-    <t>Leeftijd waarop ouderlijk huis is verlaten</t>
-  </si>
-  <si>
-    <t>c30_living_space_pp</t>
-  </si>
-  <si>
-    <t>is het gemiddelde woonoppervlak per lid van het huishouden van 35-jarigen.</t>
-  </si>
-  <si>
-    <t>c30_homeowner</t>
-  </si>
-  <si>
-    <t>Koopwoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">het percentage 35-jarigen met een koopwoning. </t>
-  </si>
-  <si>
-    <t>geografie</t>
-  </si>
-  <si>
-    <t>Nederland</t>
-  </si>
-  <si>
-    <t>Metropool Amsterdam</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>Gemeente</t>
-  </si>
-  <si>
-    <t>Almere</t>
-  </si>
-  <si>
-    <t>Amstelveen</t>
-  </si>
-  <si>
-    <t>Beverwijk</t>
-  </si>
-  <si>
-    <t>Gooise Meren</t>
-  </si>
-  <si>
-    <t>Haarlem</t>
-  </si>
-  <si>
-    <t>Haarlemmermeer</t>
-  </si>
-  <si>
-    <t>Lelystad</t>
-  </si>
-  <si>
-    <t>Purmerend</t>
-  </si>
-  <si>
-    <t>Velsen</t>
-  </si>
-  <si>
-    <t>Zaanstad</t>
-  </si>
-  <si>
-    <t>Edam-Volendam</t>
-  </si>
-  <si>
-    <t>Aalsmeer</t>
-  </si>
-  <si>
-    <t>Heemskerk</t>
-  </si>
-  <si>
-    <t>Hilversum</t>
-  </si>
-  <si>
-    <t>Huizen</t>
-  </si>
-  <si>
-    <t>Uithoorn</t>
-  </si>
-  <si>
-    <t>Bloemendaal</t>
-  </si>
-  <si>
-    <t>Heemstede</t>
-  </si>
-  <si>
-    <t>Wijdemeren</t>
-  </si>
-  <si>
-    <t>Wormerland</t>
-  </si>
-  <si>
-    <t>Diemen</t>
-  </si>
-  <si>
-    <t>Waterland</t>
-  </si>
-  <si>
-    <t>Weesp</t>
-  </si>
-  <si>
-    <t>Zuidoost</t>
-  </si>
-  <si>
-    <t>Stadsdeel</t>
-  </si>
-  <si>
-    <t>Noord</t>
-  </si>
-  <si>
-    <t>Oost</t>
-  </si>
-  <si>
-    <t>Nieuw-West</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>Centrum</t>
-  </si>
-  <si>
-    <t>Zuid</t>
-  </si>
-  <si>
-    <t>Gaasperdam, Driemond</t>
-  </si>
-  <si>
-    <t>Wijk</t>
-  </si>
-  <si>
-    <t>Noord-Oost</t>
-  </si>
-  <si>
-    <t>Bijlmer-Centrum, Amstel III</t>
-  </si>
-  <si>
-    <t>Indische Buurt, Oostelijk Havengebied</t>
-  </si>
-  <si>
-    <t>De Pijp, Rivierenbuurt</t>
-  </si>
-  <si>
-    <t>De Aker, Sloten, Nieuw-Sloten</t>
-  </si>
-  <si>
-    <t>Geuzenveld, Slotermeer, Sloterdijken</t>
-  </si>
-  <si>
-    <t>Osdorp</t>
-  </si>
-  <si>
-    <t>Bijlmer-Oost</t>
-  </si>
-  <si>
-    <t>Oud-Oost</t>
-  </si>
-  <si>
-    <t>Slotervaart</t>
-  </si>
-  <si>
-    <t>Noord-West</t>
-  </si>
-  <si>
-    <t>Bos en Lommer</t>
-  </si>
-  <si>
-    <t>IJburg, Zeeburgereiland</t>
-  </si>
-  <si>
-    <t>Oud West, De Baarsjes</t>
-  </si>
-  <si>
-    <t>Oud-Zuid</t>
-  </si>
-  <si>
-    <t>Oud-Noord</t>
-  </si>
-  <si>
-    <t>Westerpark</t>
-  </si>
-  <si>
-    <t>Centrum-Oost</t>
-  </si>
-  <si>
-    <t>Watergraafsmeer</t>
-  </si>
-  <si>
-    <t>Uitgeest</t>
-  </si>
-  <si>
-    <t>Zandvoort</t>
-  </si>
-  <si>
-    <t>Ouder-Amstel</t>
-  </si>
-  <si>
-    <t>Beemster</t>
-  </si>
-  <si>
-    <t>Landsmeer</t>
-  </si>
-  <si>
-    <t>Oostzaan</t>
-  </si>
-  <si>
-    <t>Blaricum</t>
-  </si>
-  <si>
-    <t>Laren</t>
-  </si>
-  <si>
-    <t>Centrum-West</t>
-  </si>
-  <si>
-    <t>Buitenveldert, Zuidas</t>
-  </si>
-  <si>
-    <t>is de gemiddelde leeftjid waarop 35-jarigen het ouderlijk huis hebben verlaten.</t>
+    <t>Uurloon minder dan 14 </t>
+  </si>
+  <si>
+    <t>is het gemiddelde totale vermogen van de huishoudens waartoe 35-jarigen behoorden in het jaar dat zij 35 werden. </t>
+  </si>
+  <si>
+    <t>is het gemiddelde totale vermogen zonder woning en hypotheekschuld van de huishoudens waartoe 35-jarigen behoorden in het jaar dat zij 35 werden. </t>
+  </si>
+  <si>
+    <t>is het gemiddelde waarde van de woning minus hypotheekschuld van de huishoudens waartoe 35-jarigen behoorden in het jaar dat zij 35 werden. </t>
+  </si>
+  <si>
+    <t>het percentage 35-jarigen met een koopwoning. </t>
   </si>
 </sst>
 </file>
@@ -824,24 +887,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,36 +917,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -905,26 +941,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,9 +960,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -983,7 +1000,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1089,7 +1106,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1231,7 +1248,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1239,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F4A81B-7759-BE45-BE6A-975E9F190FD6}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="128.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,188 +1293,188 @@
       </c>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="G10"/>
     </row>
@@ -1466,19 +1483,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>40</v>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1486,19 +1503,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>43</v>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1506,19 +1523,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>46</v>
+      <c r="E13" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1526,144 +1543,144 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>21</v>
+      <c r="F20" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G20"/>
     </row>
@@ -1672,39 +1689,39 @@
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>71</v>
+        <v>48</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G22"/>
     </row>
@@ -1713,39 +1730,39 @@
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>77</v>
+        <v>48</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>21</v>
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G24"/>
     </row>
@@ -1754,19 +1771,19 @@
         <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>83</v>
+        <v>48</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1774,19 +1791,17 @@
         <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>85</v>
+        <v>229</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1794,19 +1809,17 @@
         <v>6</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>87</v>
+        <v>232</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1814,19 +1827,17 @@
         <v>6</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1834,79 +1845,71 @@
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="4" t="s">
-        <v>34</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>96</v>
+      <c r="B30" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>98</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="4" t="s">
-        <v>34</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>99</v>
+      <c r="B31" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E31" s="5"/>
       <c r="F31" s="4" t="s">
-        <v>34</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>102</v>
+      <c r="B32" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>104</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="4" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="G32"/>
     </row>
@@ -1914,461 +1917,655 @@
       <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>105</v>
+      <c r="B33" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>107</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="4" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>108</v>
+      <c r="A34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>111</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E34" s="5"/>
       <c r="F34" s="4" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>113</v>
+      <c r="A35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>114</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="4" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>115</v>
+      <c r="B36" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>117</v>
+        <v>48</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>119</v>
+        <v>6</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>121</v>
+        <v>48</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>122</v>
+      <c r="B38" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>123</v>
+        <v>251</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>124</v>
+        <v>48</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>125</v>
+        <v>6</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>127</v>
+        <v>48</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>129</v>
+      <c r="A40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>130</v>
+        <v>48</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>132</v>
+      <c r="A41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>133</v>
+        <v>48</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>37</v>
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>37</v>
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>140</v>
+        <v>19</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>144</v>
+      <c r="A45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>147</v>
+      <c r="A46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>150</v>
+        <v>98</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>153</v>
+      <c r="A48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>154</v>
+        <v>91</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>156</v>
+      <c r="A49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>157</v>
+        <v>91</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>158</v>
+        <v>6</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>160</v>
+        <v>109</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>162</v>
+        <v>6</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>160</v>
+        <v>259</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>28</v>
+        <v>112</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>166</v>
+      <c r="A52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>242</v>
+      <c r="A53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>170</v>
+      <c r="A54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>160</v>
+        <v>120</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>160</v>
+        <v>121</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>174</v>
+        <v>261</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2392,7 +2589,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -2400,506 +2597,506 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data/nl/outcome_table.xlsx
+++ b/data/nl/outcome_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidpietersz/Documents/GitHub/kenniscentrumongelijkheid/data/nl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilsonea/Documents/GitHub/kenniscentrumongelijkheid/data/nl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F9AFF0-C167-D64A-A5D6-CC66067B61AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4859713C-ABB0-9448-9D55-7B25213FDA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{F41B97FE-F77A-4840-B0FB-A5C2C3F09623}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{F41B97FE-F77A-4840-B0FB-A5C2C3F09623}"/>
   </bookViews>
   <sheets>
     <sheet name="outcome" sheetId="6" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="241">
   <si>
     <t>prefix_postfix</t>
   </si>
@@ -666,9 +664,6 @@
     <t>Waterland</t>
   </si>
   <si>
-    <t>Weesp</t>
-  </si>
-  <si>
     <t>Zuidoost</t>
   </si>
   <si>
@@ -763,9 +758,6 @@
   </si>
   <si>
     <t>Ouder-Amstel</t>
-  </si>
-  <si>
-    <t>Beemster</t>
   </si>
   <si>
     <t>Landsmeer</t>
@@ -943,9 +935,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -983,7 +975,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1089,7 +1081,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1231,7 +1223,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1241,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F4A81B-7759-BE45-BE6A-975E9F190FD6}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -2325,7 +2317,7 @@
         <v>160</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>37</v>
@@ -2378,10 +2370,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08657A33-9ED7-CC48-B84C-CD0BFF48A183}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2603,15 +2595,15 @@
         <v>202</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -2619,7 +2611,7 @@
         <v>205</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -2627,7 +2619,7 @@
         <v>206</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2635,7 +2627,7 @@
         <v>207</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -2643,7 +2635,7 @@
         <v>208</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -2651,7 +2643,7 @@
         <v>209</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -2659,15 +2651,15 @@
         <v>210</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -2675,7 +2667,7 @@
         <v>213</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -2683,7 +2675,7 @@
         <v>214</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -2691,7 +2683,7 @@
         <v>215</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -2699,7 +2691,7 @@
         <v>216</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -2707,7 +2699,7 @@
         <v>217</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -2715,7 +2707,7 @@
         <v>218</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -2723,7 +2715,7 @@
         <v>219</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -2731,7 +2723,7 @@
         <v>220</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -2739,7 +2731,7 @@
         <v>221</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -2747,7 +2739,7 @@
         <v>222</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -2755,7 +2747,7 @@
         <v>223</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -2763,7 +2755,7 @@
         <v>224</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -2771,7 +2763,7 @@
         <v>225</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -2779,7 +2771,7 @@
         <v>226</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -2787,7 +2779,7 @@
         <v>227</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -2795,7 +2787,7 @@
         <v>228</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -2803,7 +2795,7 @@
         <v>229</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -2811,7 +2803,7 @@
         <v>230</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -2819,7 +2811,7 @@
         <v>231</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -2875,7 +2867,7 @@
         <v>238</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -2883,23 +2875,7 @@
         <v>239</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
